--- a/common-poi/src/main/resources/xlsx/demo_merge.xlsx
+++ b/common-poi/src/main/resources/xlsx/demo_merge.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ideaworkspace\ws1\spring-boot-2-common\common-poi\src\main\resources\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03EA63EC-793B-4EB3-8E09-60582808A53C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -62,10 +68,6 @@
   </si>
   <si>
     <t>detail开始行：${detailStartRowNo}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#formula SUM(B${detailStartRowNo}:B${detailEndRowNo})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -214,6 +216,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -476,37 +481,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="32.09765625" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -517,14 +522,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -535,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -550,14 +555,14 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -568,14 +573,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -586,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -601,20 +606,15 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -632,12 +632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -647,12 +647,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
